--- a/design/Excel/excel/技能buff表_skillBuff.xlsx
+++ b/design/Excel/excel/技能buff表_skillBuff.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cfg_skillBuff" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -626,51 +626,51 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>buff名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>显示组</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>buff描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>note</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>持续时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>跳数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>触发被动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -686,7 +686,7 @@
       </rPr>
       <t>tring</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -702,11 +702,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>duration</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -749,26 +749,26 @@
       </rPr>
       <t>kills</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>计算公式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>参数1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>参数2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>参数3</t>
   </si>
   <si>
     <t>数值组</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -784,11 +784,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>formula</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -804,7 +804,7 @@
       </rPr>
       <t>alue1</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -838,7 +838,7 @@
   </si>
   <si>
     <t>生效组</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -854,7 +854,7 @@
       </rPr>
       <t>uffEffect</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>特效位置</t>
@@ -864,7 +864,7 @@
   </si>
   <si>
     <t>buffPosition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>buff特效</t>
@@ -877,23 +877,23 @@
   </si>
   <si>
     <t>特效组</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>buff效果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>被动技能组</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>叠加层数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -909,7 +909,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -952,7 +952,7 @@
       </rPr>
       <t>umber</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -968,7 +968,7 @@
       </rPr>
       <t>Times</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1011,7 +1011,7 @@
       </rPr>
       <t>ondition</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1027,11 +1027,11 @@
       </rPr>
       <t>uff</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>临时生命值怎么处理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1047,7 +1047,7 @@
       </rPr>
       <t>uff</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1063,18 +1063,18 @@
       </rPr>
       <t>tring</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>relationBuffs</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,6 +1082,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1214,25 +1221,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,36 +1593,36 @@
       <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="5" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
@@ -1666,7 +1673,7 @@
       <c r="P3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1719,28 +1726,28 @@
       <c r="P4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="O13" s="7"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="O16" s="7"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="15:15">
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="15:15">
-      <c r="O18" s="7"/>
+      <c r="O18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1750,7 +1757,7 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="G2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1765,7 +1772,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -1779,7 +1786,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/design/Excel/excel/技能buff表_skillBuff.xlsx
+++ b/design/Excel/excel/技能buff表_skillBuff.xlsx
@@ -618,12 +618,142 @@
         </r>
       </text>
     </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+显示组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+显示组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+生效组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+数值组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+被动技能组</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>id</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -641,10 +771,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>显示组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -767,10 +893,6 @@
     <t>参数3</t>
   </si>
   <si>
-    <t>数值组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>i</t>
     </r>
@@ -837,10 +959,6 @@
     </r>
   </si>
   <si>
-    <t>生效组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>b</t>
     </r>
@@ -876,19 +994,11 @@
     <t>effectId</t>
   </si>
   <si>
-    <t>特效组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>buff效果</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能组</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1539,7 +1649,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1552,76 +1662,66 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:17">
@@ -1629,52 +1729,52 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1682,52 +1782,52 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1735,7 +1835,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="O15" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1743,7 +1843,7 @@
     </row>
     <row r="17" spans="15:15">
       <c r="O17" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="15:15">

--- a/design/Excel/excel/技能buff表_skillBuff.xlsx
+++ b/design/Excel/excel/技能buff表_skillBuff.xlsx
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -791,10 +791,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>跳数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>触发被动</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1177,6 +1173,18 @@
   </si>
   <si>
     <t>relationBuffs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>击飞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效次数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1327,7 +1335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1350,6 +1358,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1649,7 +1660,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1668,43 +1679,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1738,43 +1749,43 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1791,43 +1802,102 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="Q4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>42</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>101</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>102</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1835,7 +1905,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="O15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1843,7 +1913,7 @@
     </row>
     <row r="17" spans="15:15">
       <c r="O17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="15:15">
